--- a/Projects/CCRU_SAND/Data/KPIs_2018/HoReCa Bar Tavern_Night Club PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/HoReCa Bar Tavern_Night Club PoS 2018.xlsx
@@ -12,46 +12,48 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$49</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -68,7 +70,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="N40" authorId="0">
+    <comment ref="N43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,37 +78,10 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Aleksandra Danilenko:
 comments</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
-sku или сцена??</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
-sku или сцена??</t>
         </r>
       </text>
     </comment>
@@ -118,6 +93,37 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Aleksandra Danilenko:
+sku или сцена??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Aleksandra Danilenko:
+sku или сцена??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Aleksandra Danilenko:
 sku или сцена??</t>
@@ -129,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="245">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -260,19 +266,22 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">HoReCa (Bar Tavern/Night Clubs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
     <t xml:space="preserve">RD38010009</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoReCa (Bar Tavern/Night Clubs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
   </si>
   <si>
     <t xml:space="preserve">Ассортимент</t>
@@ -499,10 +508,13 @@
     <t xml:space="preserve">not defined</t>
   </si>
   <si>
+    <t xml:space="preserve">Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активации</t>
+  </si>
+  <si>
     <t xml:space="preserve">STANDARD 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation</t>
   </si>
   <si>
     <t xml:space="preserve">Активация</t>
@@ -707,10 +719,13 @@
     <t xml:space="preserve">Burn Glass, Monster CAN, BRN_330ml_Burn_AppleKiwi, BRN_330ml_Burn_Original, BRN_500ml_Burn_AppleKiwi, BRN_500ml_Burn_Original</t>
   </si>
   <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильник</t>
@@ -901,6 +916,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -921,24 +937,28 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -946,6 +966,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -953,6 +974,7 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1210,8 +1232,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1629000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>1628640</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1222,7 +1244,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="513000" y="0"/>
-          <a:ext cx="25831800" cy="12320640"/>
+          <a:ext cx="27223560" cy="13155480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1255,8 +1277,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1629000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>1628640</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1267,7 +1289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="513000" y="0"/>
-          <a:ext cx="25831800" cy="12320640"/>
+          <a:ext cx="27223560" cy="13155480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1300,8 +1322,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1629000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>1628640</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1312,7 +1334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="513000" y="0"/>
-          <a:ext cx="25831800" cy="12320640"/>
+          <a:ext cx="27223560" cy="13155480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1345,8 +1367,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1629000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>1628640</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1357,7 +1379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="513000" y="0"/>
-          <a:ext cx="25831800" cy="12320640"/>
+          <a:ext cx="27223560" cy="13155480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1390,41 +1412,41 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:49"/>
+  <dimension ref="1:52"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="J39" activeCellId="0" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.7674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="22.2093023255814"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="42.7023255813953"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="14.4139534883721"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="15.5860465116279"/>
-    <col collapsed="false" hidden="false" max="27" min="22" style="1" width="15.5860465116279"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.1627906976744"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.2790697674419"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="16.5627906976744"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="28.2558139534884"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="36.3023255813953"/>
-    <col collapsed="false" hidden="false" max="1008" min="44" style="1" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="1009" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.4418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="45.2883720930233"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="15.1348837209302"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="27" min="22" style="1" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.7953488372093"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="17.6"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="38.3953488372093"/>
+    <col collapsed="false" hidden="false" max="1008" min="44" style="1" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1009" style="0" width="11.446511627907"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1574,60 +1596,42 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="L2" s="8"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
@@ -1656,75 +1660,65 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="11" t="n">
-        <v>0.030006</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="R3" s="7"/>
-      <c r="S3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
       <c r="U3" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="9" t="n">
-        <v>50112128</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="9"/>
@@ -1732,14 +1726,10 @@
       <c r="AH3" s="9"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
-      <c r="AK3" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
-      <c r="AN3" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
@@ -1749,13 +1739,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>46</v>
@@ -1764,45 +1754,45 @@
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="P4" s="11" t="n">
         <v>0.030006</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -1813,10 +1803,10 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="9" t="n">
-        <v>90375408</v>
+        <v>50112128</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
@@ -1826,12 +1816,12 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
@@ -1842,13 +1832,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>46</v>
@@ -1857,45 +1847,45 @@
         <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="P5" s="11" t="n">
         <v>0.030006</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -1906,10 +1896,10 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="9" t="n">
-        <v>40822341</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>64</v>
+        <v>90375408</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
@@ -1919,12 +1909,12 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
@@ -1935,13 +1925,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>46</v>
@@ -1950,45 +1940,45 @@
         <v>3</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="N6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="P6" s="11" t="n">
         <v>0.030006</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -1999,10 +1989,10 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="9" t="n">
-        <v>40822549</v>
+        <v>40822341</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -2012,12 +2002,12 @@
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
@@ -2028,13 +2018,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>46</v>
@@ -2043,45 +2033,45 @@
         <v>3</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="P7" s="11" t="n">
-        <v>0.019998</v>
+        <v>0.030006</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -2092,10 +2082,10 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="9" t="n">
-        <v>42357278</v>
+        <v>40822549</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -2105,12 +2095,12 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
@@ -2121,13 +2111,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>46</v>
@@ -2136,45 +2126,45 @@
         <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="P8" s="11" t="n">
         <v>0.019998</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -2184,11 +2174,11 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="10" t="n">
-        <v>54490970</v>
+      <c r="AB8" s="9" t="n">
+        <v>42357278</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
@@ -2198,12 +2188,12 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
@@ -2214,13 +2204,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>46</v>
@@ -2229,45 +2219,45 @@
         <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="P9" s="11" t="n">
-        <v>0.01998</v>
+        <v>0.019998</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -2278,10 +2268,10 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="10" t="n">
-        <v>40822419</v>
+        <v>54490970</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
@@ -2291,12 +2281,12 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
@@ -2307,63 +2297,75 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="11" t="n">
+        <v>0.01998</v>
+      </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="S10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="U10" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
+      <c r="X10" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="7"/>
+      <c r="AB10" s="10" t="n">
+        <v>40822419</v>
+      </c>
+      <c r="AC10" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="9"/>
@@ -2372,11 +2374,13 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
+      <c r="AN10" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
@@ -2386,75 +2390,65 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="N11" s="10" t="s">
+      <c r="O11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="11" t="n">
-        <v>0.030006</v>
-      </c>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R11" s="7"/>
-      <c r="S11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="9" t="n">
-        <v>90418822</v>
-      </c>
-      <c r="AC11" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="9"/>
@@ -2463,13 +2457,11 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
-      <c r="AN11" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
@@ -2479,13 +2471,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>46</v>
@@ -2494,45 +2486,45 @@
         <v>3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="n">
         <v>9</v>
       </c>
       <c r="N12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="P12" s="11" t="n">
         <v>0.030006</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -2543,10 +2535,10 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="9" t="n">
-        <v>90382741</v>
+        <v>90418822</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
@@ -2556,12 +2548,12 @@
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
@@ -2572,13 +2564,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
@@ -2587,45 +2579,45 @@
         <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="n">
         <v>9</v>
       </c>
       <c r="N13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="P13" s="11" t="n">
-        <v>0.019998</v>
+        <v>0.030006</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
@@ -2636,10 +2628,10 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="9" t="n">
-        <v>5449000196972</v>
+        <v>90382741</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
@@ -2649,12 +2641,12 @@
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
@@ -2665,63 +2657,75 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14" s="7"/>
+      <c r="P14" s="11" t="n">
+        <v>0.019998</v>
+      </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="S14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="U14" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
+      <c r="X14" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="7"/>
+      <c r="AB14" s="9" t="n">
+        <v>5449000196972</v>
+      </c>
+      <c r="AC14" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="9"/>
@@ -2730,11 +2734,13 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
+      <c r="AN14" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
@@ -2744,75 +2750,65 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="N15" s="7" t="s">
+      <c r="O15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" s="11" t="n">
-        <v>0.019998</v>
-      </c>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R15" s="7"/>
-      <c r="S15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
       <c r="U15" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="9" t="n">
-        <v>5449000148056</v>
-      </c>
-      <c r="AC15" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="9"/>
@@ -2821,13 +2817,11 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
-      <c r="AN15" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="AN15" s="7"/>
       <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
@@ -2837,63 +2831,75 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="7"/>
+      <c r="P16" s="11" t="n">
+        <v>0.019998</v>
+      </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
+      <c r="S16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="U16" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
+      <c r="X16" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="7"/>
+      <c r="AB16" s="9" t="n">
+        <v>5449000148056</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="9"/>
@@ -2902,11 +2908,13 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
+      <c r="AN16" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
@@ -2916,75 +2924,65 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="N17" s="7" t="s">
+      <c r="O17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" s="11" t="n">
-        <v>0.019998</v>
-      </c>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R17" s="7"/>
-      <c r="S17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
       <c r="U17" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="9" t="n">
-        <v>4650075420362</v>
-      </c>
-      <c r="AC17" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="9"/>
@@ -2993,13 +2991,11 @@
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="AN17" s="7"/>
       <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
@@ -3009,13 +3005,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>46</v>
@@ -3024,45 +3020,45 @@
         <v>3</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7" t="n">
         <v>15</v>
       </c>
       <c r="N18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="P18" s="11" t="n">
         <v>0.019998</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
@@ -3073,10 +3069,10 @@
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="9" t="n">
-        <v>4650075420386</v>
+        <v>4650075420362</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
@@ -3086,12 +3082,12 @@
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
@@ -3102,13 +3098,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>46</v>
@@ -3117,45 +3113,45 @@
         <v>3</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7" t="n">
         <v>15</v>
       </c>
       <c r="N19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="P19" s="11" t="n">
         <v>0.019998</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
@@ -3166,10 +3162,10 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="9" t="n">
-        <v>4650075420409</v>
+        <v>4650075420386</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
@@ -3179,12 +3175,12 @@
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
@@ -3195,13 +3191,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>46</v>
@@ -3210,45 +3206,45 @@
         <v>3</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="n">
         <v>15</v>
       </c>
       <c r="N20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="P20" s="11" t="n">
         <v>0.019998</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -3259,10 +3255,10 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="9" t="n">
-        <v>4650075420447</v>
+        <v>4650075420409</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
@@ -3272,12 +3268,12 @@
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
@@ -3288,63 +3284,75 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P21" s="7"/>
+      <c r="P21" s="11" t="n">
+        <v>0.019998</v>
+      </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
+      <c r="S21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="U21" s="7" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
+      <c r="X21" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="7"/>
+      <c r="AB21" s="9" t="n">
+        <v>4650075420447</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="9"/>
@@ -3353,11 +3361,13 @@
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
+      <c r="AN21" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="AO21" s="7"/>
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
@@ -3367,75 +3377,65 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="L22" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="M22" s="7" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="N22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="P22" s="11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="U22" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="9" t="n">
-        <v>509987300136059</v>
-      </c>
-      <c r="AC22" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="9"/>
@@ -3444,13 +3444,11 @@
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
-      <c r="AN22" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
@@ -3460,60 +3458,60 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="n">
         <v>3</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7" t="n">
         <v>20</v>
       </c>
       <c r="N23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O23" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="O23" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="P23" s="11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
@@ -3524,27 +3522,25 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="9" t="n">
-        <v>4607174573314</v>
+        <v>509987300136059</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
-      <c r="AH23" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="AH23" s="9"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
@@ -3555,60 +3551,60 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" s="7" t="n">
         <v>3</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="n">
         <v>20</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P24" s="11" t="n">
         <v>0.01</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -3619,25 +3615,27 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="9" t="n">
-        <v>4607174573338</v>
+        <v>4607174573314</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
+      <c r="AH24" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
@@ -3648,60 +3646,62 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P25" s="12" t="n">
-        <v>0.15</v>
+      <c r="P25" s="11" t="n">
+        <v>0.01</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="V25" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7" t="n">
         <v>1</v>
@@ -3709,27 +3709,27 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="7" t="s">
-        <v>123</v>
+      <c r="AB25" s="9" t="n">
+        <v>4607174573338</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN25" s="7"/>
+      <c r="AK25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
@@ -3738,87 +3738,59 @@
       <c r="A26" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>128</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>129</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P26" s="12" t="n">
-        <v>0.05</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P26" s="11"/>
       <c r="Q26" s="7" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="R26" s="7"/>
-      <c r="S26" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
+      <c r="AB26" s="9"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
-      <c r="AL26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM26" s="7" t="s">
-        <v>133</v>
-      </c>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
-      <c r="AP26" s="14"/>
+      <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3826,83 +3798,79 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K27" s="7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="P27" s="12" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="V27" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="V27" s="13"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AC27" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
-      <c r="AG27" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
@@ -3911,92 +3879,86 @@
         <v>119</v>
       </c>
       <c r="AM27" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="15"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="L28" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="M28" s="7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P28" s="12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>142</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T28" s="7"/>
       <c r="U28" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
-      <c r="AE28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF28" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
@@ -4006,25 +3968,25 @@
         <v>119</v>
       </c>
       <c r="AM28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
       <c r="AP28" s="14"/>
-      <c r="AQ28" s="15"/>
+      <c r="AQ28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>46</v>
@@ -4036,66 +3998,66 @@
         <v>119</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K29" s="7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7" t="n">
         <v>25</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="P29" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R29" s="16"/>
+      <c r="Q29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R29" s="7"/>
       <c r="S29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>148</v>
+        <v>58</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AC29" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
+      <c r="AE29" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH29" s="7" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
@@ -4103,7 +4065,7 @@
         <v>119</v>
       </c>
       <c r="AM29" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN29" s="7"/>
       <c r="AO29" s="7"/>
@@ -4115,72 +4077,80 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K30" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="M30" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7" t="n">
+        <v>25</v>
+      </c>
       <c r="N30" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="P30" s="12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T30" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="U30" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
+      <c r="AB30" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
+      <c r="AE30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF30" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="7"/>
@@ -4190,25 +4160,25 @@
         <v>119</v>
       </c>
       <c r="AM30" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="14"/>
-      <c r="AQ30" s="7"/>
+      <c r="AQ30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>46</v>
@@ -4220,139 +4190,139 @@
         <v>119</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K31" s="7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P31" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R31" s="7"/>
+      <c r="Q31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R31" s="16"/>
       <c r="S31" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC31" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="AC31" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7" t="n">
-        <v>5000034</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="AH31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
       <c r="AL31" s="7" t="s">
         <v>119</v>
       </c>
       <c r="AM31" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="AN31" s="7"/>
       <c r="AO31" s="7"/>
       <c r="AP31" s="14"/>
-      <c r="AQ31" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="AQ31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K32" s="7" t="n">
-        <v>31</v>
-      </c>
-      <c r="L32" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="M32" s="7" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P32" s="12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T32" s="7" t="s">
-        <v>142</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T32" s="7"/>
       <c r="U32" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -4362,17 +4332,11 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF32" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
@@ -4382,7 +4346,7 @@
         <v>119</v>
       </c>
       <c r="AM32" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AN32" s="7"/>
       <c r="AO32" s="7"/>
@@ -4394,58 +4358,60 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="K33" s="7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="M33" s="7" t="n">
+        <v>29</v>
+      </c>
       <c r="N33" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="P33" s="12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T33" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="T33" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="U33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
@@ -4456,89 +4422,93 @@
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC33" s="7" t="s">
-        <v>169</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI33" s="7"/>
+      <c r="AG33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7" t="n">
+        <v>5000034</v>
+      </c>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7" t="s">
         <v>119</v>
       </c>
       <c r="AM33" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="AN33" s="7"/>
       <c r="AO33" s="7"/>
       <c r="AP33" s="14"/>
-      <c r="AQ33" s="7"/>
+      <c r="AQ33" s="7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="K34" s="7" t="n">
-        <v>33</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="M34" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7" t="n">
+        <v>29</v>
+      </c>
       <c r="N34" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P34" s="12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T34" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="U34" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -4548,11 +4518,17 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
+      <c r="AB34" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
+      <c r="AE34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF34" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
@@ -4562,7 +4538,7 @@
         <v>119</v>
       </c>
       <c r="AM34" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="AN34" s="7"/>
       <c r="AO34" s="7"/>
@@ -4574,60 +4550,60 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K35" s="7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P35" s="12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T35" s="17" t="s">
         <v>58</v>
       </c>
+      <c r="T35" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="U35" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
@@ -4637,18 +4613,18 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
-      <c r="AB35" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC35" s="19" t="s">
-        <v>177</v>
+      <c r="AB35" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI35" s="7"/>
       <c r="AJ35" s="7"/>
@@ -4657,7 +4633,7 @@
         <v>119</v>
       </c>
       <c r="AM35" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AN35" s="7"/>
       <c r="AO35" s="7"/>
@@ -4669,60 +4645,60 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K36" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="L36" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="M36" s="7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P36" s="12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T36" s="17" t="s">
         <v>58</v>
       </c>
+      <c r="T36" s="7"/>
       <c r="U36" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -4732,12 +4708,8 @@
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
-      <c r="AB36" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC36" s="19" t="s">
-        <v>181</v>
-      </c>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
@@ -4750,7 +4722,7 @@
         <v>119</v>
       </c>
       <c r="AM36" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AN36" s="7"/>
       <c r="AO36" s="7"/>
@@ -4762,58 +4734,60 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K37" s="7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="M37" s="7" t="n">
+        <v>33</v>
+      </c>
       <c r="N37" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P37" s="12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T37" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="T37" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="U37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -4823,18 +4797,18 @@
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
-      <c r="AB37" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC37" s="7" t="s">
-        <v>185</v>
+      <c r="AB37" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC37" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7"/>
@@ -4843,7 +4817,7 @@
         <v>119</v>
       </c>
       <c r="AM37" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AN37" s="7"/>
       <c r="AO37" s="7"/>
@@ -4855,67 +4829,75 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="K38" s="7" t="n">
-        <v>37</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="M38" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7" t="n">
+        <v>33</v>
+      </c>
       <c r="N38" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="P38" s="12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="S38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="U38" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7"/>
+      <c r="AB38" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC38" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
@@ -4925,9 +4907,11 @@
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM38" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="AM38" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="AN38" s="7"/>
       <c r="AO38" s="7"/>
       <c r="AP38" s="14"/>
@@ -4938,60 +4922,60 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E39" s="7" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="K39" s="7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="P39" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R39" s="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R39" s="7"/>
       <c r="S39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
@@ -5001,21 +4985,27 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
+      <c r="AB39" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC39" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
+      <c r="AH39" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="7"/>
       <c r="AL39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM39" s="1" t="s">
-        <v>198</v>
+        <v>119</v>
+      </c>
+      <c r="AM39" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
@@ -5026,76 +5016,46 @@
       <c r="A40" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7" t="n">
+        <v>51</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="O40" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="J40" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K40" s="7" t="n">
-        <v>39</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7" t="n">
-        <v>37</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P40" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="R40" s="16"/>
-      <c r="S40" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T40" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="U40" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
-      <c r="AB40" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC40" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
@@ -5104,91 +5064,81 @@
       <c r="AI40" s="7"/>
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
-      <c r="AL40" s="7" t="s">
-        <v>187</v>
-      </c>
+      <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="7"/>
       <c r="AO40" s="7"/>
       <c r="AP40" s="14"/>
-      <c r="AQ40" s="7" t="s">
-        <v>204</v>
-      </c>
+      <c r="AQ40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E41" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K41" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="L41" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="M41" s="7" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="P41" s="12" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="R41" s="7"/>
-      <c r="S41" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T41" s="7" t="s">
-        <v>202</v>
-      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
       <c r="U41" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
-      <c r="AB41" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC41" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
       <c r="AD41" s="7"/>
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
@@ -5198,105 +5148,101 @@
       <c r="AJ41" s="7"/>
       <c r="AK41" s="7"/>
       <c r="AL41" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM41" s="7"/>
       <c r="AN41" s="7"/>
       <c r="AO41" s="7"/>
       <c r="AP41" s="14"/>
-      <c r="AQ41" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="AQ41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E42" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F42" s="7" t="n">
         <v>3</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K42" s="7" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="n">
         <v>37</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="P42" s="12" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R42" s="0"/>
+        <v>199</v>
+      </c>
+      <c r="R42" s="16"/>
       <c r="S42" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7" t="n">
+      <c r="X42" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z42" s="7" t="n">
-        <v>14</v>
-      </c>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
-      <c r="AB42" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC42" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7"/>
       <c r="AL42" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM42" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="AM42" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="AN42" s="7"/>
       <c r="AO42" s="7"/>
-      <c r="AP42" s="7"/>
+      <c r="AP42" s="14"/>
       <c r="AQ42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5304,55 +5250,75 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E43" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+        <v>105</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="K43" s="7" t="n">
-        <v>42</v>
-      </c>
-      <c r="L43" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="20" t="s">
-        <v>214</v>
+      <c r="N43" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="R43" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="S43" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="P43" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R43" s="16"/>
+      <c r="S43" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="T43" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="U43" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
+      <c r="X43" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
-      <c r="AC43" s="7"/>
+      <c r="AB43" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC43" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
@@ -5361,69 +5327,91 @@
       <c r="AI43" s="7"/>
       <c r="AJ43" s="7"/>
       <c r="AK43" s="7"/>
-      <c r="AL43" s="7"/>
+      <c r="AL43" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="AM43" s="7"/>
       <c r="AN43" s="7"/>
       <c r="AO43" s="7"/>
-      <c r="AP43" s="7"/>
-      <c r="AQ43" s="7"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E44" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+        <v>105</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="K44" s="7" t="n">
-        <v>43</v>
-      </c>
-      <c r="L44" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="M44" s="7"/>
-      <c r="N44" s="20" t="s">
-        <v>219</v>
+        <v>40</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P44" s="7"/>
+        <v>209</v>
+      </c>
+      <c r="P44" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="Q44" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="R44" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="S44" s="7"/>
+        <v>210</v>
+      </c>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="T44" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="U44" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
+      <c r="X44" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
-      <c r="AB44" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC44" s="7"/>
+      <c r="AB44" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC44" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
@@ -5432,78 +5420,102 @@
       <c r="AI44" s="7"/>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
+      <c r="AL44" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="AM44" s="7"/>
       <c r="AN44" s="7"/>
       <c r="AO44" s="7"/>
-      <c r="AP44" s="7"/>
-      <c r="AQ44" s="7"/>
+      <c r="AP44" s="14"/>
+      <c r="AQ44" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K45" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="O45" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="7" t="n">
-        <v>44</v>
-      </c>
-      <c r="L45" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="M45" s="7"/>
-      <c r="N45" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="R45" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="S45" s="7"/>
+      <c r="P45" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="R45" s="0"/>
+      <c r="S45" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="T45" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="U45" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
+      <c r="Y45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="7" t="n">
+        <v>14</v>
+      </c>
       <c r="AA45" s="7"/>
-      <c r="AB45" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC45" s="7"/>
+      <c r="AB45" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC45" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7"/>
-      <c r="AH45" s="7"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="9"/>
       <c r="AI45" s="7"/>
       <c r="AJ45" s="7"/>
       <c r="AK45" s="7"/>
-      <c r="AL45" s="7"/>
+      <c r="AL45" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
       <c r="AO45" s="7"/>
@@ -5512,19 +5524,19 @@
     </row>
     <row r="46" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="20"/>
@@ -5532,28 +5544,28 @@
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="7" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L46" s="7" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
@@ -5562,9 +5574,7 @@
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
-      <c r="AB46" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
@@ -5583,19 +5593,19 @@
     </row>
     <row r="47" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E47" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="20"/>
@@ -5603,28 +5613,28 @@
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="7" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L47" s="7" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -5634,7 +5644,7 @@
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
@@ -5657,16 +5667,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E48" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="20"/>
@@ -5674,28 +5684,28 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="7" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L48" s="7" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
@@ -5705,7 +5715,7 @@
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
@@ -5725,19 +5735,19 @@
     </row>
     <row r="49" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E49" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="20"/>
@@ -5745,28 +5755,28 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="7" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L49" s="7" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -5776,7 +5786,7 @@
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
       <c r="AB49" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
@@ -5794,8 +5804,221 @@
       <c r="AP49" s="7"/>
       <c r="AQ49" s="7"/>
     </row>
+    <row r="50" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="L50" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="M50" s="7"/>
+      <c r="N50" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="L51" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="M51" s="7"/>
+      <c r="N51" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+      <c r="AP51" s="7"/>
+      <c r="AQ51" s="7"/>
+    </row>
+    <row r="52" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="L52" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="M52" s="7"/>
+      <c r="N52" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AQ49"/>
+  <autoFilter ref="A1:AQ52"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5821,7 +6044,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5844,10 +6067,10 @@
         <v>28</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>42</v>
@@ -5856,18 +6079,18 @@
         <v>15</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="23" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/HoReCa Bar Tavern_Night Club PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/HoReCa Bar Tavern_Night Club PoS 2018.xlsx
@@ -12,48 +12,46 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$45</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$B$1:$AQ$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -70,7 +68,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="N43" authorId="0">
+    <comment ref="N40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,10 +76,37 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Aleksandra Danilenko:
 comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Aleksandra Danilenko:
+sku или сцена??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Aleksandra Danilenko:
+sku или сцена??</t>
         </r>
       </text>
     </comment>
@@ -93,37 +118,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
-sku или сцена??</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
-sku или сцена??</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Aleksandra Danilenko:
 sku или сцена??</t>
@@ -135,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="242">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -266,22 +260,19 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">RD38010009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">HoReCa (Bar Tavern/Night Clubs)</t>
   </si>
   <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
     <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38010009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ассортимент</t>
@@ -508,13 +499,10 @@
     <t xml:space="preserve">not defined</t>
   </si>
   <si>
+    <t xml:space="preserve">STANDARD 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 16</t>
   </si>
   <si>
     <t xml:space="preserve">Активация</t>
@@ -719,13 +707,10 @@
     <t xml:space="preserve">Burn Glass, Monster CAN, BRN_330ml_Burn_AppleKiwi, BRN_330ml_Burn_Original, BRN_500ml_Burn_AppleKiwi, BRN_500ml_Burn_Original</t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильник</t>
@@ -916,7 +901,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -937,28 +921,24 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -966,7 +946,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -974,7 +953,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1232,8 +1210,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1628640</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>1629000</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1244,7 +1222,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="513000" y="0"/>
-          <a:ext cx="27223560" cy="13155480"/>
+          <a:ext cx="25831800" cy="12320640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1277,8 +1255,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1628640</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>1629000</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1289,7 +1267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="513000" y="0"/>
-          <a:ext cx="27223560" cy="13155480"/>
+          <a:ext cx="25831800" cy="12320640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1322,8 +1300,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1628640</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>1629000</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1334,7 +1312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="513000" y="0"/>
-          <a:ext cx="27223560" cy="13155480"/>
+          <a:ext cx="25831800" cy="12320640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1367,8 +1345,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1628640</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>1629000</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1379,7 +1357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="513000" y="0"/>
-          <a:ext cx="27223560" cy="13155480"/>
+          <a:ext cx="25831800" cy="12320640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,41 +1390,41 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:52"/>
+  <dimension ref="1:49"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J39" activeCellId="0" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="45.2883720930233"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="27" min="22" style="1" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.7953488372093"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="17.6"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="38.3953488372093"/>
-    <col collapsed="false" hidden="false" max="1008" min="44" style="1" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="1009" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="22.2093023255814"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="42.7023255813953"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="14.4139534883721"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="15.5860465116279"/>
+    <col collapsed="false" hidden="false" max="27" min="22" style="1" width="15.5860465116279"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.1627906976744"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.2790697674419"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="16.5627906976744"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="28.2558139534884"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="36.3023255813953"/>
+    <col collapsed="false" hidden="false" max="1008" min="44" style="1" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="1009" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1596,42 +1574,60 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="U2" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
@@ -1660,65 +1656,75 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="7" t="n">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="7" t="n">
-        <v>49</v>
-      </c>
       <c r="N3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>0.030006</v>
+      </c>
       <c r="Q3" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="U3" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
+      <c r="X3" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="7"/>
+      <c r="AB3" s="9" t="n">
+        <v>50112128</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="9"/>
@@ -1726,10 +1732,14 @@
       <c r="AH3" s="9"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
+      <c r="AK3" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
+      <c r="AN3" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
@@ -1739,13 +1749,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>46</v>
@@ -1754,45 +1764,45 @@
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="K4" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P4" s="11" t="n">
         <v>0.030006</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -1803,10 +1813,10 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="9" t="n">
-        <v>50112128</v>
+        <v>90375408</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
@@ -1816,12 +1826,12 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
@@ -1832,13 +1842,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>46</v>
@@ -1847,45 +1857,45 @@
         <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="K5" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>63</v>
+      <c r="N5" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P5" s="11" t="n">
         <v>0.030006</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="U5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -1896,10 +1906,10 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="9" t="n">
-        <v>90375408</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>63</v>
+        <v>40822341</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
@@ -1909,12 +1919,12 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
@@ -1925,13 +1935,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>46</v>
@@ -1940,45 +1950,45 @@
         <v>3</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="K6" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P6" s="11" t="n">
         <v>0.030006</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -1989,10 +1999,10 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="9" t="n">
-        <v>40822341</v>
+        <v>40822549</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -2002,12 +2012,12 @@
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
@@ -2018,13 +2028,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>46</v>
@@ -2033,45 +2043,45 @@
         <v>3</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="K7" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P7" s="11" t="n">
-        <v>0.030006</v>
+        <v>0.019998</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="U7" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -2082,10 +2092,10 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="9" t="n">
-        <v>40822549</v>
+        <v>42357278</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -2095,12 +2105,12 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
@@ -2111,13 +2121,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>46</v>
@@ -2126,45 +2136,45 @@
         <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="K8" s="7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P8" s="11" t="n">
         <v>0.019998</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="U8" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -2174,11 +2184,11 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="9" t="n">
-        <v>42357278</v>
+      <c r="AB8" s="10" t="n">
+        <v>54490970</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
@@ -2188,12 +2198,12 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
@@ -2204,13 +2214,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>46</v>
@@ -2219,45 +2229,45 @@
         <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="K9" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0.019998</v>
+        <v>0.01998</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="U9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -2268,10 +2278,10 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="10" t="n">
-        <v>54490970</v>
+        <v>40822419</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
@@ -2281,12 +2291,12 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
@@ -2297,75 +2307,63 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="11" t="n">
-        <v>0.01998</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R10" s="7"/>
-      <c r="S10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
       <c r="U10" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="10" t="n">
-        <v>40822419</v>
-      </c>
-      <c r="AC10" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="9"/>
@@ -2374,13 +2372,11 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
-      <c r="AN10" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
@@ -2390,65 +2386,75 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="K11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="O11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="11" t="n">
+        <v>0.030006</v>
+      </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="S11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="U11" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
+      <c r="X11" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="7"/>
+      <c r="AB11" s="9" t="n">
+        <v>90418822</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="9"/>
@@ -2457,11 +2463,13 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
+      <c r="AN11" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
@@ -2471,13 +2479,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>46</v>
@@ -2486,45 +2494,45 @@
         <v>3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="K12" s="7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="n">
         <v>9</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="11" t="n">
         <v>0.030006</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="U12" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -2535,10 +2543,10 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="9" t="n">
-        <v>90418822</v>
+        <v>90382741</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
@@ -2548,12 +2556,12 @@
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
@@ -2564,13 +2572,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
@@ -2579,45 +2587,45 @@
         <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="K13" s="7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="n">
         <v>9</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="11" t="n">
-        <v>0.030006</v>
+        <v>0.019998</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="U13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
@@ -2628,10 +2636,10 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="9" t="n">
-        <v>90382741</v>
+        <v>5449000196972</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
@@ -2641,12 +2649,12 @@
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
@@ -2657,75 +2665,63 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="11" t="n">
-        <v>0.019998</v>
-      </c>
+      <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R14" s="7"/>
-      <c r="S14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
       <c r="U14" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="9" t="n">
-        <v>5449000196972</v>
-      </c>
-      <c r="AC14" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="9"/>
@@ -2734,13 +2730,11 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
-      <c r="AN14" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
@@ -2750,65 +2744,75 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="K15" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="7" t="n">
-        <v>49</v>
-      </c>
       <c r="N15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="7"/>
+      <c r="O15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="11" t="n">
+        <v>0.019998</v>
+      </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="S15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="U15" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
+      <c r="X15" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="7"/>
+      <c r="AB15" s="9" t="n">
+        <v>5449000148056</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="9"/>
@@ -2817,11 +2821,13 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
+      <c r="AN15" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
@@ -2831,75 +2837,63 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7" t="n">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7"/>
       <c r="N16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="11" t="n">
-        <v>0.019998</v>
-      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R16" s="7"/>
-      <c r="S16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
       <c r="U16" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="9" t="n">
-        <v>5449000148056</v>
-      </c>
-      <c r="AC16" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="9"/>
@@ -2908,13 +2902,11 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
-      <c r="AN16" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="AN16" s="7"/>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
@@ -2924,65 +2916,75 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="K17" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="7" t="n">
-        <v>49</v>
-      </c>
       <c r="N17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P17" s="7"/>
+      <c r="O17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="11" t="n">
+        <v>0.019998</v>
+      </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="S17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="U17" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
+      <c r="X17" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="7"/>
+      <c r="AB17" s="9" t="n">
+        <v>4650075420362</v>
+      </c>
+      <c r="AC17" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="9"/>
@@ -2991,11 +2993,13 @@
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
+      <c r="AN17" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
@@ -3005,13 +3009,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>46</v>
@@ -3020,45 +3024,45 @@
         <v>3</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="K18" s="7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7" t="n">
         <v>15</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P18" s="11" t="n">
         <v>0.019998</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="U18" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
@@ -3069,10 +3073,10 @@
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="9" t="n">
-        <v>4650075420362</v>
+        <v>4650075420386</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
@@ -3082,12 +3086,12 @@
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
@@ -3098,13 +3102,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>46</v>
@@ -3113,45 +3117,45 @@
         <v>3</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="K19" s="7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7" t="n">
         <v>15</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P19" s="11" t="n">
         <v>0.019998</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="U19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
@@ -3162,10 +3166,10 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="9" t="n">
-        <v>4650075420386</v>
+        <v>4650075420409</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
@@ -3175,12 +3179,12 @@
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
@@ -3191,13 +3195,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>46</v>
@@ -3206,45 +3210,45 @@
         <v>3</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="K20" s="7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="n">
         <v>15</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P20" s="11" t="n">
         <v>0.019998</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="U20" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -3255,10 +3259,10 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="9" t="n">
-        <v>4650075420409</v>
+        <v>4650075420447</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
@@ -3268,12 +3272,12 @@
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
@@ -3284,75 +3288,63 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="H21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7" t="n">
-        <v>15</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="8"/>
       <c r="N21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="P21" s="11" t="n">
-        <v>0.019998</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R21" s="7"/>
-      <c r="S21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
       <c r="U21" s="7" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
-      <c r="AB21" s="9" t="n">
-        <v>4650075420447</v>
-      </c>
-      <c r="AC21" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="9"/>
@@ -3361,13 +3353,11 @@
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
-      <c r="AN21" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="AN21" s="7"/>
       <c r="AO21" s="7"/>
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
@@ -3377,65 +3367,75 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="H22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="K22" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="M22" s="7" t="n">
-        <v>49</v>
-      </c>
       <c r="N22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P22" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="11" t="n">
+        <v>0.02</v>
+      </c>
       <c r="Q22" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
+      <c r="S22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="U22" s="7" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
+      <c r="X22" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="7"/>
+      <c r="AB22" s="9" t="n">
+        <v>509987300136059</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="9"/>
@@ -3444,11 +3444,13 @@
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
+      <c r="AN22" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
@@ -3458,60 +3460,60 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="F23" s="7" t="n">
         <v>3</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="K23" s="7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7" t="n">
         <v>20</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P23" s="11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="U23" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U23" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
@@ -3522,25 +3524,27 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="9" t="n">
-        <v>509987300136059</v>
+        <v>4607174573314</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
+      <c r="AH23" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
@@ -3551,60 +3555,60 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="F24" s="7" t="n">
         <v>3</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="K24" s="7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="n">
         <v>20</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P24" s="11" t="n">
         <v>0.01</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="U24" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -3615,27 +3619,25 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="9" t="n">
-        <v>4607174573314</v>
+        <v>4607174573338</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
-      <c r="AH24" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="AH24" s="9"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
@@ -3646,62 +3648,60 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="7" t="n">
-        <v>20</v>
-      </c>
+      <c r="M25" s="7"/>
       <c r="N25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="P25" s="11" t="n">
-        <v>0.01</v>
+        <v>121</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" s="12" t="n">
+        <v>0.15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T25" s="7" t="s">
+      <c r="U25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="U25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V25" s="7"/>
+      <c r="V25" s="13"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7" t="n">
         <v>1</v>
@@ -3709,27 +3709,27 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="9" t="n">
-        <v>4607174573338</v>
+      <c r="AB25" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
-      <c r="AK25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN25" s="7"/>
       <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
@@ -3738,59 +3738,87 @@
       <c r="A26" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="D26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F26" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="K26" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="L26" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P26" s="11"/>
+        <v>131</v>
+      </c>
+      <c r="P26" s="12" t="n">
+        <v>0.05</v>
+      </c>
       <c r="Q26" s="7" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
+      <c r="S26" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
+      <c r="U26" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
+      <c r="X26" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="9"/>
+      <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
+      <c r="AL26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM26" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
+      <c r="AP26" s="14"/>
       <c r="AQ26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3798,79 +3826,83 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K27" s="7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P27" s="12" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="U27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V27" s="13"/>
+      <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AC27" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
+      <c r="AE27" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
+      <c r="AG27" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
@@ -3879,86 +3911,92 @@
         <v>119</v>
       </c>
       <c r="AM27" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="7"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K28" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M28" s="7" t="n">
-        <v>50</v>
-      </c>
       <c r="N28" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="P28" s="12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T28" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="U28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
+      <c r="AB28" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
+      <c r="AE28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF28" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
@@ -3968,25 +4006,25 @@
         <v>119</v>
       </c>
       <c r="AM28" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
       <c r="AP28" s="14"/>
-      <c r="AQ28" s="7"/>
+      <c r="AQ28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>46</v>
@@ -3998,66 +4036,66 @@
         <v>119</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K29" s="7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7" t="n">
         <v>25</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P29" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R29" s="16"/>
+      <c r="S29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>138</v>
+      <c r="T29" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AC29" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AD29" s="7"/>
-      <c r="AE29" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH29" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="AH29" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
@@ -4065,7 +4103,7 @@
         <v>119</v>
       </c>
       <c r="AM29" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AN29" s="7"/>
       <c r="AO29" s="7"/>
@@ -4077,80 +4115,72 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K30" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7" t="n">
-        <v>25</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M30" s="7"/>
       <c r="N30" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="P30" s="12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T30" s="7" t="s">
-        <v>144</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="T30" s="7"/>
       <c r="U30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF30" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="7"/>
@@ -4160,25 +4190,25 @@
         <v>119</v>
       </c>
       <c r="AM30" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="14"/>
-      <c r="AQ30" s="15"/>
+      <c r="AQ30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>46</v>
@@ -4190,139 +4220,139 @@
         <v>119</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K31" s="7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="P31" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R31" s="16"/>
+      <c r="Q31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" s="7"/>
       <c r="S31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC31" s="7" t="s">
-        <v>152</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH31" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI31" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7" t="n">
+        <v>5000034</v>
+      </c>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
       <c r="AL31" s="7" t="s">
         <v>119</v>
       </c>
       <c r="AM31" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AN31" s="7"/>
       <c r="AO31" s="7"/>
       <c r="AP31" s="14"/>
-      <c r="AQ31" s="15"/>
+      <c r="AQ31" s="7" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K32" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="M32" s="7" t="n">
-        <v>50</v>
-      </c>
       <c r="N32" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P32" s="12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T32" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="U32" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -4332,11 +4362,17 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
+      <c r="AB32" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
+      <c r="AE32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF32" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
@@ -4346,7 +4382,7 @@
         <v>119</v>
       </c>
       <c r="AM32" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN32" s="7"/>
       <c r="AO32" s="7"/>
@@ -4358,60 +4394,58 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="K33" s="7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="7" t="n">
-        <v>29</v>
-      </c>
+      <c r="M33" s="7"/>
       <c r="N33" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P33" s="12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="U33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
@@ -4422,93 +4456,89 @@
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC33" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="AC33" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
-      <c r="AG33" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7" t="n">
-        <v>5000034</v>
-      </c>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI33" s="7"/>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7" t="s">
         <v>119</v>
       </c>
       <c r="AM33" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="AN33" s="7"/>
       <c r="AO33" s="7"/>
       <c r="AP33" s="14"/>
-      <c r="AQ33" s="7" t="s">
-        <v>161</v>
-      </c>
+      <c r="AQ33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="K34" s="7" t="n">
-        <v>31</v>
-      </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7" t="n">
-        <v>29</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" s="7"/>
       <c r="N34" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P34" s="12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T34" s="7" t="s">
-        <v>144</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="T34" s="7"/>
       <c r="U34" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -4518,17 +4548,11 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
-      <c r="AE34" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF34" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
@@ -4538,7 +4562,7 @@
         <v>119</v>
       </c>
       <c r="AM34" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="AN34" s="7"/>
       <c r="AO34" s="7"/>
@@ -4550,60 +4574,60 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K35" s="7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P35" s="12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T35" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T35" s="7" t="s">
+      <c r="U35" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U35" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
@@ -4613,18 +4637,18 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
-      <c r="AB35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC35" s="7" t="s">
-        <v>171</v>
+      <c r="AB35" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC35" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AI35" s="7"/>
       <c r="AJ35" s="7"/>
@@ -4633,7 +4657,7 @@
         <v>119</v>
       </c>
       <c r="AM35" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AN35" s="7"/>
       <c r="AO35" s="7"/>
@@ -4645,60 +4669,60 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K36" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7" t="n">
         <v>33</v>
       </c>
-      <c r="L36" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="M36" s="7" t="n">
-        <v>50</v>
-      </c>
       <c r="N36" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P36" s="12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T36" s="7"/>
       <c r="U36" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -4708,8 +4732,12 @@
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
+      <c r="AB36" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC36" s="19" t="s">
+        <v>181</v>
+      </c>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
@@ -4722,7 +4750,7 @@
         <v>119</v>
       </c>
       <c r="AM36" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AN36" s="7"/>
       <c r="AO36" s="7"/>
@@ -4734,60 +4762,58 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K37" s="7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="7" t="n">
-        <v>33</v>
-      </c>
+      <c r="M37" s="7"/>
       <c r="N37" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P37" s="12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T37" s="17" t="s">
+      <c r="U37" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U37" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -4797,18 +4823,18 @@
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
-      <c r="AB37" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC37" s="19" t="s">
-        <v>179</v>
+      <c r="AB37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC37" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7"/>
@@ -4817,7 +4843,7 @@
         <v>119</v>
       </c>
       <c r="AM37" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AN37" s="7"/>
       <c r="AO37" s="7"/>
@@ -4829,75 +4855,67 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="K38" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7" t="n">
-        <v>33</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M38" s="7"/>
       <c r="N38" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="P38" s="12" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="R38" s="7"/>
-      <c r="S38" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T38" s="17" t="s">
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U38" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
-      <c r="AB38" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC38" s="19" t="s">
-        <v>183</v>
-      </c>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
@@ -4907,11 +4925,9 @@
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM38" s="7" t="s">
-        <v>172</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AM38" s="7"/>
       <c r="AN38" s="7"/>
       <c r="AO38" s="7"/>
       <c r="AP38" s="14"/>
@@ -4922,60 +4938,60 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="K39" s="7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="P39" s="12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R39" s="16"/>
+      <c r="S39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="T39" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="U39" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="U39" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
@@ -4985,27 +5001,21 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
-      <c r="AB39" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC39" s="7" t="s">
-        <v>187</v>
-      </c>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
-      <c r="AH39" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="7"/>
       <c r="AL39" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM39" s="7" t="s">
-        <v>172</v>
+        <v>60</v>
+      </c>
+      <c r="AM39" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
@@ -5016,46 +5026,76 @@
       <c r="A40" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="D40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F40" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="K40" s="7" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="M40" s="7" t="n">
+        <v>37</v>
+      </c>
       <c r="N40" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="P40" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R40" s="16"/>
+      <c r="S40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
+      <c r="X40" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
+      <c r="AB40" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC40" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
@@ -5064,81 +5104,91 @@
       <c r="AI40" s="7"/>
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
+      <c r="AL40" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="AM40" s="7"/>
       <c r="AN40" s="7"/>
       <c r="AO40" s="7"/>
       <c r="AP40" s="14"/>
-      <c r="AQ40" s="7"/>
+      <c r="AQ40" s="7" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K41" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="M41" s="7" t="n">
-        <v>51</v>
-      </c>
       <c r="N41" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="P41" s="12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
+      <c r="S41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="U41" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7"/>
+      <c r="AB41" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC41" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="AD41" s="7"/>
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
@@ -5148,101 +5198,105 @@
       <c r="AJ41" s="7"/>
       <c r="AK41" s="7"/>
       <c r="AL41" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM41" s="7"/>
       <c r="AN41" s="7"/>
       <c r="AO41" s="7"/>
       <c r="AP41" s="14"/>
-      <c r="AQ41" s="7"/>
+      <c r="AQ41" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F42" s="7" t="n">
         <v>3</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="I42" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K42" s="7" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="n">
         <v>37</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="P42" s="12" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="R42" s="16"/>
+        <v>211</v>
+      </c>
+      <c r="R42" s="0"/>
       <c r="S42" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
-      <c r="X42" s="7" t="n">
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
+      <c r="Z42" s="7" t="n">
+        <v>14</v>
+      </c>
       <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7"/>
+      <c r="AB42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC42" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="7"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7"/>
       <c r="AL42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM42" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AM42" s="7"/>
       <c r="AN42" s="7"/>
       <c r="AO42" s="7"/>
-      <c r="AP42" s="14"/>
+      <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5250,75 +5304,55 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>190</v>
+        <v>43</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>193</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
       <c r="K43" s="7" t="n">
-        <v>39</v>
-      </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="L43" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="N43" s="7" t="s">
-        <v>202</v>
+      <c r="M43" s="7"/>
+      <c r="N43" s="20" t="s">
+        <v>214</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P43" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="R43" s="16"/>
-      <c r="S43" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="S43" s="7"/>
       <c r="T43" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="U43" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
-      <c r="X43" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
-      <c r="AB43" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC43" s="7" t="s">
-        <v>140</v>
-      </c>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
@@ -5327,91 +5361,69 @@
       <c r="AI43" s="7"/>
       <c r="AJ43" s="7"/>
       <c r="AK43" s="7"/>
-      <c r="AL43" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
       <c r="AN43" s="7"/>
       <c r="AO43" s="7"/>
-      <c r="AP43" s="14"/>
-      <c r="AQ43" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>190</v>
+        <v>43</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="7" t="n">
         <v>43</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K44" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7" t="n">
-        <v>37</v>
-      </c>
-      <c r="N44" s="7" t="s">
-        <v>208</v>
+      <c r="L44" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P44" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="P44" s="7"/>
       <c r="Q44" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="S44" s="7"/>
       <c r="T44" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="U44" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="U44" s="7"/>
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
-      <c r="X44" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
-      <c r="AB44" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC44" s="7" t="s">
-        <v>140</v>
-      </c>
+      <c r="AB44" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
@@ -5420,102 +5432,78 @@
       <c r="AI44" s="7"/>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="7"/>
-      <c r="AL44" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="7"/>
       <c r="AO44" s="7"/>
-      <c r="AP44" s="14"/>
-      <c r="AQ44" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="AP44" s="7"/>
+      <c r="AQ44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K45" s="7" t="n">
-        <v>41</v>
-      </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7" t="n">
-        <v>37</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>212</v>
+      <c r="L45" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P45" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="R45" s="0"/>
-      <c r="S45" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="S45" s="7"/>
       <c r="T45" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="U45" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
-      <c r="Y45" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="7" t="n">
-        <v>14</v>
-      </c>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
-      <c r="AB45" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC45" s="7" t="s">
-        <v>140</v>
-      </c>
+      <c r="AB45" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
-      <c r="AF45" s="9"/>
-      <c r="AG45" s="9"/>
-      <c r="AH45" s="9"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
       <c r="AI45" s="7"/>
       <c r="AJ45" s="7"/>
       <c r="AK45" s="7"/>
-      <c r="AL45" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
       <c r="AO45" s="7"/>
@@ -5524,19 +5512,19 @@
     </row>
     <row r="46" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="20"/>
@@ -5544,28 +5532,28 @@
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="7" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L46" s="7" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="20" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
@@ -5574,7 +5562,9 @@
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
+      <c r="AB46" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
@@ -5593,19 +5583,19 @@
     </row>
     <row r="47" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="20"/>
@@ -5613,28 +5603,28 @@
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="7" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L47" s="7" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="20" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -5644,7 +5634,7 @@
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
@@ -5667,16 +5657,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="20"/>
@@ -5684,28 +5674,28 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="7" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L48" s="7" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="20" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
@@ -5715,7 +5705,7 @@
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
@@ -5735,19 +5725,19 @@
     </row>
     <row r="49" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="20"/>
@@ -5755,28 +5745,28 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="7" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L49" s="7" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="20" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -5786,7 +5776,7 @@
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
       <c r="AB49" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
@@ -5804,221 +5794,8 @@
       <c r="AP49" s="7"/>
       <c r="AQ49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="7" t="n">
-        <v>46</v>
-      </c>
-      <c r="L50" s="7" t="n">
-        <v>32</v>
-      </c>
-      <c r="M50" s="7"/>
-      <c r="N50" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="R50" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" s="7"/>
-      <c r="AL50" s="7"/>
-      <c r="AM50" s="7"/>
-      <c r="AN50" s="7"/>
-      <c r="AO50" s="7"/>
-      <c r="AP50" s="7"/>
-      <c r="AQ50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="7" t="n">
-        <v>47</v>
-      </c>
-      <c r="L51" s="7" t="n">
-        <v>33</v>
-      </c>
-      <c r="M51" s="7"/>
-      <c r="N51" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="R51" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
-      <c r="AG51" s="7"/>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="7"/>
-      <c r="AJ51" s="7"/>
-      <c r="AK51" s="7"/>
-      <c r="AL51" s="7"/>
-      <c r="AM51" s="7"/>
-      <c r="AN51" s="7"/>
-      <c r="AO51" s="7"/>
-      <c r="AP51" s="7"/>
-      <c r="AQ51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="7" t="n">
-        <v>48</v>
-      </c>
-      <c r="L52" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="M52" s="7"/>
-      <c r="N52" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="R52" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7"/>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
-      <c r="AJ52" s="7"/>
-      <c r="AK52" s="7"/>
-      <c r="AL52" s="7"/>
-      <c r="AM52" s="7"/>
-      <c r="AN52" s="7"/>
-      <c r="AO52" s="7"/>
-      <c r="AP52" s="7"/>
-      <c r="AQ52" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AQ52"/>
+  <autoFilter ref="A1:AQ49"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6044,7 +5821,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,10 +5844,10 @@
         <v>28</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>42</v>
@@ -6079,18 +5856,18 @@
         <v>15</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
